--- a/OriginalDataset/Dataset.xlsx
+++ b/OriginalDataset/Dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medicorsoftware-my.sharepoint.com/personal/kris_medicorsoftware_com/Documents/Medicor/HR/Software dev Job Ad/Presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Medicor\MedicorDataFormatter\OriginalDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6FCF0-02F7-441C-AE37-E6B4CDAA7766}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10808" xr2:uid="{1DB53C1C-FD47-4BB3-BB48-F7AD535890F0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DB53C1C-FD47-4BB3-BB48-F7AD535890F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -399,23 +400,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EA0C53-A141-40AA-B759-62088F3C5F05}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>42364.648611111108</v>
@@ -451,7 +452,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42586.486111111109</v>
       </c>
@@ -471,7 +472,7 @@
         <v>42586.518750000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42557.413194444445</v>
       </c>
@@ -491,7 +492,7 @@
         <v>42557.443749999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42671.527777777781</v>
       </c>
@@ -511,7 +512,7 @@
         <v>42671.642361111109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42670.09652777778</v>
       </c>
@@ -531,7 +532,7 @@
         <v>42670.654861111114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42720.442361111112</v>
       </c>
@@ -551,7 +552,7 @@
         <v>42720.53402777778</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42405.518750000003</v>
       </c>
@@ -571,7 +572,7 @@
         <v>42405.552777777775</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42408.21597222222</v>
       </c>
@@ -589,7 +590,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42442.722222222219</v>
       </c>
@@ -607,7 +608,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42464.434027777781</v>
       </c>
@@ -627,7 +628,7 @@
         <v>42464.459722222222</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42464.399305555555</v>
       </c>
@@ -647,7 +648,7 @@
         <v>42464.422222222223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>42464.381944444445</v>
@@ -665,7 +666,7 @@
         <v>42464.388194444444</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42461.427083333336</v>
       </c>
@@ -685,7 +686,7 @@
         <v>42461.501388888886</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42461.35833333333</v>
       </c>
@@ -705,7 +706,7 @@
         <v>42461.425000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42464.602083333331</v>
       </c>
@@ -723,7 +724,7 @@
         <v>42464.675000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42464.559027777781</v>
       </c>
@@ -743,7 +744,7 @@
         <v>42464.601388888892</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42464.443055555559</v>
       </c>
@@ -763,7 +764,7 @@
         <v>42464.513888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42464.372916666667</v>
       </c>
@@ -783,7 +784,7 @@
         <v>42464.439583333333</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42468.649305555555</v>
       </c>
@@ -803,7 +804,7 @@
         <v>42468.663194444445</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42468.615277777775</v>
       </c>
@@ -823,7 +824,7 @@
         <v>42468.137499999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42468.57708333333</v>
       </c>
@@ -841,7 +842,7 @@
         <v>42468.611111111109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42467.472916666666</v>
       </c>
@@ -861,7 +862,7 @@
         <v>42467.504861111112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42467.455555555556</v>
       </c>
@@ -881,7 +882,7 @@
         <v>42467.464583333334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42467.424305555556</v>
       </c>
@@ -901,7 +902,7 @@
         <v>42467.448611111111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42467.397222222222</v>
       </c>
@@ -921,7 +922,7 @@
         <v>42467.419444444444</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42467.673611111109</v>
       </c>
@@ -941,7 +942,7 @@
         <v>42467.701388888891</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42467.631944444445</v>
       </c>
@@ -961,7 +962,7 @@
         <v>42467.660416666666</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42467.106249999997</v>
       </c>
@@ -981,7 +982,7 @@
         <v>42467.620833333334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42467.583333333336</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>42467.595833333333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42460.621527777781</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>42460.655555555553</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42460.574999999997</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>42460.611111111109</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42461.447916666664</v>
       </c>
@@ -1059,7 +1060,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42460.45416666667</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>42460.489583333336</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42464.436111111114</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>42464.631944444445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42464.379166666666</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>42464.411111111112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42468.501388888886</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>42468.59375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42468.366666666669</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>42468.481944444444</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42461.464583333334</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>42461.48541666667</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42461.392361111109</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>42461.443055555559</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>42447.643750000003</v>
@@ -1217,7 +1218,7 @@
         <v>42447.654166666667</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42463.473611111112</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>42463.527777777781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42466.600694444445</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>42466.65625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42481.713194444441</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>42481.748611111114</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42481.666666666664</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>42481.70416666667</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42481.628472222219</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>42481.663194444445</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42481.59375</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>42481.624305555553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42481.572916666664</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>42481.589583333334</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42482.701388888891</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>42482.719444444447</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42482.67291666667</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>42482.701388888891</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42482.638888888891</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>42482.666666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42496.63958333333</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>42496.673611111109</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42496.581250000003</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>42496.613194444442</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42495.683333333334</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>42495.718055555553</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42495.651388888888</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>42495.679861111108</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42495.618055555555</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>42495.649305555555</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42495.592361111114</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>42495.612500000003</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42495.574305555558</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>42495.590277777781</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42479.430555555555</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>42479.477777777778</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42479.371527777781</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>42479.425694444442</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42489.647916666669</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>42489.663194444445</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42489.626388888886</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>42489.642361111109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42489.588194444441</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>42489.638194444444</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42474.486805555556</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>42474.520833333336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42474.459722222222</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>42474.484027777777</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42474.438888888886</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>42474.455555555556</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42474.415972222225</v>
       </c>
@@ -1729,6 +1730,26 @@
       </c>
       <c r="F67" s="1">
         <v>42474.430555555555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42474.375</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42474.375</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42474.895833333336</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42474.895833333336</v>
+      </c>
+      <c r="E68" s="1">
+        <v>42474.895833333336</v>
+      </c>
+      <c r="F68" s="1">
+        <v>42474.895833333336</v>
       </c>
     </row>
   </sheetData>

--- a/OriginalDataset/Dataset.xlsx
+++ b/OriginalDataset/Dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Medicor\MedicorDataFormatter\OriginalDataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medicorsoftware-my.sharepoint.com/personal/kris_medicorsoftware_com/Documents/Medicor/HR/Software dev Job Ad/Presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6FCF0-02F7-441C-AE37-E6B4CDAA7766}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DB53C1C-FD47-4BB3-BB48-F7AD535890F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10808" xr2:uid="{1DB53C1C-FD47-4BB3-BB48-F7AD535890F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -400,23 +399,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EA0C53-A141-40AA-B759-62088F3C5F05}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>42364.648611111108</v>
@@ -452,7 +451,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>42586.486111111109</v>
       </c>
@@ -472,7 +471,7 @@
         <v>42586.518750000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42557.413194444445</v>
       </c>
@@ -492,7 +491,7 @@
         <v>42557.443749999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42671.527777777781</v>
       </c>
@@ -512,7 +511,7 @@
         <v>42671.642361111109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42670.09652777778</v>
       </c>
@@ -532,7 +531,7 @@
         <v>42670.654861111114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42720.442361111112</v>
       </c>
@@ -552,7 +551,7 @@
         <v>42720.53402777778</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42405.518750000003</v>
       </c>
@@ -572,7 +571,7 @@
         <v>42405.552777777775</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42408.21597222222</v>
       </c>
@@ -590,7 +589,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42442.722222222219</v>
       </c>
@@ -608,7 +607,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42464.434027777781</v>
       </c>
@@ -628,7 +627,7 @@
         <v>42464.459722222222</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42464.399305555555</v>
       </c>
@@ -648,7 +647,7 @@
         <v>42464.422222222223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>42464.381944444445</v>
@@ -666,7 +665,7 @@
         <v>42464.388194444444</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>42461.427083333336</v>
       </c>
@@ -686,7 +685,7 @@
         <v>42461.501388888886</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>42461.35833333333</v>
       </c>
@@ -706,7 +705,7 @@
         <v>42461.425000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>42464.602083333331</v>
       </c>
@@ -724,7 +723,7 @@
         <v>42464.675000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>42464.559027777781</v>
       </c>
@@ -744,7 +743,7 @@
         <v>42464.601388888892</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>42464.443055555559</v>
       </c>
@@ -764,7 +763,7 @@
         <v>42464.513888888891</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>42464.372916666667</v>
       </c>
@@ -784,7 +783,7 @@
         <v>42464.439583333333</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>42468.649305555555</v>
       </c>
@@ -804,7 +803,7 @@
         <v>42468.663194444445</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>42468.615277777775</v>
       </c>
@@ -824,7 +823,7 @@
         <v>42468.137499999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>42468.57708333333</v>
       </c>
@@ -842,7 +841,7 @@
         <v>42468.611111111109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>42467.472916666666</v>
       </c>
@@ -862,7 +861,7 @@
         <v>42467.504861111112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>42467.455555555556</v>
       </c>
@@ -882,7 +881,7 @@
         <v>42467.464583333334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>42467.424305555556</v>
       </c>
@@ -902,7 +901,7 @@
         <v>42467.448611111111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>42467.397222222222</v>
       </c>
@@ -922,7 +921,7 @@
         <v>42467.419444444444</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>42467.673611111109</v>
       </c>
@@ -942,7 +941,7 @@
         <v>42467.701388888891</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>42467.631944444445</v>
       </c>
@@ -962,7 +961,7 @@
         <v>42467.660416666666</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>42467.106249999997</v>
       </c>
@@ -982,7 +981,7 @@
         <v>42467.620833333334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>42467.583333333336</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>42467.595833333333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>42460.621527777781</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>42460.655555555553</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>42460.574999999997</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>42460.611111111109</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>42461.447916666664</v>
       </c>
@@ -1060,7 +1059,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>42460.45416666667</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>42460.489583333336</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>42464.436111111114</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>42464.631944444445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>42464.379166666666</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>42464.411111111112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>42468.501388888886</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>42468.59375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>42468.366666666669</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>42468.481944444444</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>42461.464583333334</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>42461.48541666667</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>42461.392361111109</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>42461.443055555559</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>42447.643750000003</v>
@@ -1218,7 +1217,7 @@
         <v>42447.654166666667</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>42463.473611111112</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>42463.527777777781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42466.600694444445</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>42466.65625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42481.713194444441</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>42481.748611111114</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>42481.666666666664</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>42481.70416666667</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>42481.628472222219</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>42481.663194444445</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>42481.59375</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>42481.624305555553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>42481.572916666664</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>42481.589583333334</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>42482.701388888891</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>42482.719444444447</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>42482.67291666667</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>42482.701388888891</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>42482.638888888891</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>42482.666666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>42496.63958333333</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>42496.673611111109</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>42496.581250000003</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>42496.613194444442</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>42495.683333333334</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>42495.718055555553</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>42495.651388888888</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>42495.679861111108</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>42495.618055555555</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>42495.649305555555</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>42495.592361111114</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>42495.612500000003</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>42495.574305555558</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>42495.590277777781</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>42479.430555555555</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>42479.477777777778</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>42479.371527777781</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>42479.425694444442</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>42489.647916666669</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>42489.663194444445</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>42489.626388888886</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>42489.642361111109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>42489.588194444441</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>42489.638194444444</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>42474.486805555556</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>42474.520833333336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>42474.459722222222</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>42474.484027777777</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>42474.438888888886</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>42474.455555555556</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>42474.415972222225</v>
       </c>
@@ -1730,26 +1729,6 @@
       </c>
       <c r="F67" s="1">
         <v>42474.430555555555</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>42474.375</v>
-      </c>
-      <c r="B68" s="1">
-        <v>42474.375</v>
-      </c>
-      <c r="C68" s="1">
-        <v>42474.895833333336</v>
-      </c>
-      <c r="D68" s="1">
-        <v>42474.895833333336</v>
-      </c>
-      <c r="E68" s="1">
-        <v>42474.895833333336</v>
-      </c>
-      <c r="F68" s="1">
-        <v>42474.895833333336</v>
       </c>
     </row>
   </sheetData>
